--- a/file/add-task-example.xlsx
+++ b/file/add-task-example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KPI-Tracker\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8DE75B-BEC7-4378-AD27-A16D86DB381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CCCD5E-22EC-4259-88E0-AF4ABC7AD061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Lặp lại</t>
   </si>
   <si>
-    <t>Ngày thực hiện</t>
-  </si>
-  <si>
     <t>Mỗi ngày</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Thời gian kết thúc</t>
+  </si>
+  <si>
+    <t>Điểm đánh giá*</t>
   </si>
 </sst>
 </file>
@@ -431,13 +431,13 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="31.44140625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24" style="3" customWidth="1"/>
+    <col min="1" max="2" width="31.44140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="24" style="3" customWidth="1"/>
     <col min="6" max="7" width="22.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -465,147 +465,170 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>

--- a/file/add-task-example.xlsx
+++ b/file/add-task-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KPI-Tracker\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CCCD5E-22EC-4259-88E0-AF4ABC7AD061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9F552A-C83F-4856-9F1B-6577C331AEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
